--- a/data/trans_orig/P6603-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>209864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190568</v>
+        <v>190927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>229234</v>
+        <v>229399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5629736080764104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5112103983200816</v>
+        <v>0.5121742295082249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6149346658519038</v>
+        <v>0.6153781534657407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -765,19 +765,19 @@
         <v>117527</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105733</v>
+        <v>105782</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127095</v>
+        <v>126833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7797318825418406</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7014839552968298</v>
+        <v>0.7018123744373973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8432123632156575</v>
+        <v>0.8414747986008145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>315</v>
@@ -786,19 +786,19 @@
         <v>327390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>305104</v>
+        <v>304115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>349332</v>
+        <v>350623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6253823662339502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5828103056123827</v>
+        <v>0.5809222896899195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6672953507927848</v>
+        <v>0.6697614532293852</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>81068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66082</v>
+        <v>64199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98112</v>
+        <v>97536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2174692095436627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1772698691299868</v>
+        <v>0.1722172573964102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2631920050743086</v>
+        <v>0.2616471711446212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -836,19 +836,19 @@
         <v>21852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13876</v>
+        <v>14423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33426</v>
+        <v>31890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1449795077823275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09205728923503809</v>
+        <v>0.09568795524559401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2217653027690883</v>
+        <v>0.2115775303138654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -857,19 +857,19 @@
         <v>102920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84112</v>
+        <v>84188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121953</v>
+        <v>122841</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1965980696654161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1606716422823411</v>
+        <v>0.1608163434334678</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2329556922117061</v>
+        <v>0.2346511213034268</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>59859</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46864</v>
+        <v>46314</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76333</v>
+        <v>75676</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1605742731487844</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1257160513968165</v>
+        <v>0.1242390885636253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2047667430300485</v>
+        <v>0.2030046078495375</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>9184</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4709</v>
+        <v>4687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15939</v>
+        <v>16391</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06093158907028028</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03124228506395531</v>
+        <v>0.0310960088203114</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.105750771995039</v>
+        <v>0.1087475045541228</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -928,19 +928,19 @@
         <v>69042</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56507</v>
+        <v>56061</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85112</v>
+        <v>87559</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1318852822064097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1079390768724575</v>
+        <v>0.1070889238009919</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1625810955460323</v>
+        <v>0.1672559363024481</v>
       </c>
     </row>
     <row r="7">
@@ -960,16 +960,16 @@
         <v>14092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33622</v>
+        <v>32779</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05898290923114251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03780160497586545</v>
+        <v>0.037802630508742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09019334455742872</v>
+        <v>0.08793187165179869</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7372</v>
+        <v>6588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01435702060555159</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0489067895346107</v>
+        <v>0.04371017459396889</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -999,19 +999,19 @@
         <v>24151</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16256</v>
+        <v>15700</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35592</v>
+        <v>35162</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04613428189422401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0310524035890337</v>
+        <v>0.02998944538163797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06798750390630835</v>
+        <v>0.0671672082843711</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>750546</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>716913</v>
+        <v>717725</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>782266</v>
+        <v>783650</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6683719086057459</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6384212896681216</v>
+        <v>0.6391437359293912</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6966184836712274</v>
+        <v>0.6978510714128594</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>466</v>
@@ -1124,19 +1124,19 @@
         <v>488766</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>470717</v>
+        <v>468749</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>504604</v>
+        <v>503463</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8429263318404508</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8117985417415006</v>
+        <v>0.8084048117616008</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8702405101242732</v>
+        <v>0.8682730973197123</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1177</v>
@@ -1145,19 +1145,19 @@
         <v>1239312</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1202534</v>
+        <v>1201987</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1273099</v>
+        <v>1275445</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7278121550493056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7062133623290379</v>
+        <v>0.7058924941670357</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7476543173343758</v>
+        <v>0.7490318030847203</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>194657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170739</v>
+        <v>171984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221194</v>
+        <v>221990</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1733443350817806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1520455138725825</v>
+        <v>0.1531543728722552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1969763303832165</v>
+        <v>0.1976851769535677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1195,19 +1195,19 @@
         <v>57671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44671</v>
+        <v>44752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74774</v>
+        <v>74444</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09945931170698252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07703989900341199</v>
+        <v>0.07718000968053156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1289546312633603</v>
+        <v>0.1283866793076736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>246</v>
@@ -1216,19 +1216,19 @@
         <v>252327</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225180</v>
+        <v>226007</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>284052</v>
+        <v>284710</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1481845945464116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1322415551626279</v>
+        <v>0.1327272187758652</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1668154229162985</v>
+        <v>0.1672018750192581</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>133075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111599</v>
+        <v>111252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155844</v>
+        <v>154784</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1185053709912156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09938029031064909</v>
+        <v>0.09907111041472086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1387808663270291</v>
+        <v>0.1378371864881724</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1266,19 +1266,19 @@
         <v>25274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16519</v>
+        <v>16838</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36603</v>
+        <v>36826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0435884004135634</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02848872754602721</v>
+        <v>0.02903916789811903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0631262208338484</v>
+        <v>0.0635108164285387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>155</v>
@@ -1287,19 +1287,19 @@
         <v>158350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>134436</v>
+        <v>134398</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>183488</v>
+        <v>184095</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09299422603470557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07895029270669858</v>
+        <v>0.07892815400341292</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.107756927954267</v>
+        <v>0.1081138385328671</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>44669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33288</v>
+        <v>33798</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60701</v>
+        <v>60039</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03977838532125785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02964312393743015</v>
+        <v>0.03009740126711116</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05405490762730231</v>
+        <v>0.05346525621932506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1337,19 +1337,19 @@
         <v>8133</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3969</v>
+        <v>3912</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15238</v>
+        <v>15029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01402595603900326</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006844116385747</v>
+        <v>0.006746340514919276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02627959144215424</v>
+        <v>0.02591839962014725</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -1358,19 +1358,19 @@
         <v>52802</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40362</v>
+        <v>40338</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69977</v>
+        <v>68709</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03100902436957722</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02370343110891325</v>
+        <v>0.02368958101369356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04109518659533794</v>
+        <v>0.04035096791871781</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>334252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>317829</v>
+        <v>317518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348719</v>
+        <v>349659</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8311609153265305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7903219529086765</v>
+        <v>0.7895491419239565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8671333631783259</v>
+        <v>0.8694725405216025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>248</v>
@@ -1483,19 +1483,19 @@
         <v>257875</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>245371</v>
+        <v>245233</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267854</v>
+        <v>267014</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8886830185926754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8455923515593846</v>
+        <v>0.8451167989330371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9230701999202763</v>
+        <v>0.9201747933958326</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>576</v>
@@ -1504,19 +1504,19 @@
         <v>592128</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>570092</v>
+        <v>572403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>609088</v>
+        <v>608968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8552702586908936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8234421824311597</v>
+        <v>0.8267800611805631</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.879767903194001</v>
+        <v>0.8795951063288245</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>42347</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30507</v>
+        <v>29680</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56634</v>
+        <v>56530</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1053009610244453</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07585905107266869</v>
+        <v>0.07380389824276415</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1408285154757214</v>
+        <v>0.1405681192496209</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -1554,19 +1554,19 @@
         <v>18722</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11302</v>
+        <v>11289</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28503</v>
+        <v>28488</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06451967085344394</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03894757960855168</v>
+        <v>0.03890228286677869</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09822574600365037</v>
+        <v>0.09817302734538086</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>55</v>
@@ -1575,19 +1575,19 @@
         <v>61069</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46844</v>
+        <v>47231</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>77824</v>
+        <v>79588</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08820822498478328</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06766157958039616</v>
+        <v>0.06822006026340688</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1124089087247797</v>
+        <v>0.1149566329616962</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>14418</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7989</v>
+        <v>7956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24036</v>
+        <v>24868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03585249253469482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01986586895194726</v>
+        <v>0.01978329836686173</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05976748621481812</v>
+        <v>0.06183653404703704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1625,19 +1625,19 @@
         <v>9862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4656</v>
+        <v>4677</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17389</v>
+        <v>17590</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03398650880875308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01604682081349193</v>
+        <v>0.01611800880469338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05992385208094899</v>
+        <v>0.06061956198774525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1646,19 +1646,19 @@
         <v>24280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15828</v>
+        <v>15993</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35487</v>
+        <v>36667</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03507039939472577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02286271541696192</v>
+        <v>0.023100955273574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05125780426602132</v>
+        <v>0.05296260973164128</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>11134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5155</v>
+        <v>5304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21238</v>
+        <v>20687</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02768563111432937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01281870788676287</v>
+        <v>0.01318866671791198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05281189953840995</v>
+        <v>0.05144129782448987</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1696,19 +1696,19 @@
         <v>3717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9900</v>
+        <v>10324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0128108017451276</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003534330524104999</v>
+        <v>0.003468306557692741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03411614720627737</v>
+        <v>0.03557702884061528</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1717,7 +1717,7 @@
         <v>14851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7652</v>
+        <v>7647</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>25894</v>
@@ -1726,10 +1726,10 @@
         <v>0.02145111692959741</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01105240516785739</v>
+        <v>0.01104492391465055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03740187797723853</v>
+        <v>0.03740197486956318</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>1294663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1251036</v>
+        <v>1253429</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1336746</v>
+        <v>1335984</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6821639734016964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6591767289643963</v>
+        <v>0.660437630221733</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7043377339383474</v>
+        <v>0.7039365099214628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>827</v>
@@ -1842,19 +1842,19 @@
         <v>864167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>838233</v>
+        <v>839348</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>884585</v>
+        <v>884422</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8466024851142221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8211955966506009</v>
+        <v>0.8222876697492165</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8666050771469627</v>
+        <v>0.8664459262504839</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2068</v>
@@ -1863,19 +1863,19 @@
         <v>2158830</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2110084</v>
+        <v>2111130</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2206172</v>
+        <v>2206306</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7396740167751525</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7229724877558393</v>
+        <v>0.7233309357035534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7558948494785287</v>
+        <v>0.7559407784010737</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>318071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286830</v>
+        <v>286435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>356892</v>
+        <v>352192</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1675931991034468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1511320700654016</v>
+        <v>0.1509241442475922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1880478642052952</v>
+        <v>0.185571662612256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -1913,19 +1913,19 @@
         <v>98245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81513</v>
+        <v>81044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121672</v>
+        <v>117151</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09624837671489031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07985596084748335</v>
+        <v>0.0793963101366785</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1191985973678507</v>
+        <v>0.1147695152845639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>394</v>
@@ -1934,19 +1934,19 @@
         <v>416316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>381267</v>
+        <v>379599</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>458760</v>
+        <v>456418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.142641356695566</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1306323542737614</v>
+        <v>0.1300610585094046</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.157183826623437</v>
+        <v>0.1563813466339296</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>207352</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>181710</v>
+        <v>178770</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>235356</v>
+        <v>233204</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1092547183952473</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09574379602065525</v>
+        <v>0.09419472108618507</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1240099746479336</v>
+        <v>0.1228763814736307</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -1984,19 +1984,19 @@
         <v>44321</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31859</v>
+        <v>32538</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59273</v>
+        <v>59083</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04341973838716148</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03121127770362351</v>
+        <v>0.03187650811645965</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05806802007061768</v>
+        <v>0.05788200190408468</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>246</v>
@@ -2005,19 +2005,19 @@
         <v>251672</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>222916</v>
+        <v>221421</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>283073</v>
+        <v>281929</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0862298654193539</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07637703912335936</v>
+        <v>0.07586492544282016</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09698852846799041</v>
+        <v>0.09659661522117677</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>77790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60401</v>
+        <v>60365</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97992</v>
+        <v>95575</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04098810909960945</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03182557001053801</v>
+        <v>0.031806835557221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05163220830417471</v>
+        <v>0.05035894941055486</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2055,19 +2055,19 @@
         <v>14014</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8428</v>
+        <v>7992</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24456</v>
+        <v>23523</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0137293997837261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008256866811112909</v>
+        <v>0.007829301906188711</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02395930156050871</v>
+        <v>0.02304532362007075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2076,19 +2076,19 @@
         <v>91805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74233</v>
+        <v>74177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>111321</v>
+        <v>112689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03145476110992759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02543422741908395</v>
+        <v>0.02541510825738958</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03814163940286068</v>
+        <v>0.03861037984171933</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>79260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66312</v>
+        <v>66076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92419</v>
+        <v>93112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4330727620424702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3623267023098547</v>
+        <v>0.361037008587742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5049747739267089</v>
+        <v>0.5087567023719777</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -2440,19 +2440,19 @@
         <v>98482</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88215</v>
+        <v>87893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108812</v>
+        <v>109142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7240130996183688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6485383531744494</v>
+        <v>0.6461703672452334</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.799960763937853</v>
+        <v>0.8023845652939707</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -2461,19 +2461,19 @@
         <v>177742</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158041</v>
+        <v>160102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196482</v>
+        <v>195878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5571145592255236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4953655682606011</v>
+        <v>0.5018244521904446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.615852502353204</v>
+        <v>0.6139610394632532</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>44425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33687</v>
+        <v>33630</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56801</v>
+        <v>57319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2427352813256499</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1840665058238373</v>
+        <v>0.1837508584449433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3103572899706971</v>
+        <v>0.3131901245781863</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -2511,19 +2511,19 @@
         <v>24616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15604</v>
+        <v>16719</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34554</v>
+        <v>34780</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1809709408658449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1147135708223279</v>
+        <v>0.1229147426274341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2540301612409137</v>
+        <v>0.2556923813356449</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -2532,19 +2532,19 @@
         <v>69041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55915</v>
+        <v>54484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86078</v>
+        <v>83509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2164021854878769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1752598976312665</v>
+        <v>0.170774442498879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2698043635623138</v>
+        <v>0.2617520176119782</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>37884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28464</v>
+        <v>27784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50582</v>
+        <v>48303</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2069947979619892</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1555251924330719</v>
+        <v>0.1518099815789425</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.276376504774335</v>
+        <v>0.2639272704261202</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2582,19 +2582,19 @@
         <v>6319</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2170</v>
+        <v>2773</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13016</v>
+        <v>13735</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04645422665313069</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01594997825411744</v>
+        <v>0.02038574524107301</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0956891941129</v>
+        <v>0.1009783975505123</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -2603,19 +2603,19 @@
         <v>44203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32199</v>
+        <v>33202</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56820</v>
+        <v>56852</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1385486651504812</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1009253599912489</v>
+        <v>0.1040697493702343</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1780957510977073</v>
+        <v>0.1781979741808819</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>21449</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12703</v>
+        <v>13199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30890</v>
+        <v>33720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1171971586698907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06940830932075175</v>
+        <v>0.07212075156364783</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1687788251950985</v>
+        <v>0.184246769988168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2653,19 +2653,19 @@
         <v>6605</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2381</v>
+        <v>2285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13210</v>
+        <v>13182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04856173286265558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01750422313835873</v>
+        <v>0.01679648708930302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09711477377974344</v>
+        <v>0.09690807170116043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -2674,19 +2674,19 @@
         <v>28055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18796</v>
+        <v>18705</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41356</v>
+        <v>39888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08793459013611844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05891280732790299</v>
+        <v>0.05862955950868365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1296276823064514</v>
+        <v>0.1250265498213274</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>489208</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>456370</v>
+        <v>458504</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>520945</v>
+        <v>521376</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.53833865080315</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5022030299316042</v>
+        <v>0.5045508908955726</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5732631686769526</v>
+        <v>0.5737370923099712</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>408</v>
@@ -2799,19 +2799,19 @@
         <v>436951</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>415251</v>
+        <v>415545</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>458109</v>
+        <v>457836</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7627838031101358</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7249023670131198</v>
+        <v>0.725416232107357</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7997188202467326</v>
+        <v>0.7992438831150404</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>875</v>
@@ -2820,19 +2820,19 @@
         <v>926159</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>888393</v>
+        <v>889988</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>962077</v>
+        <v>966296</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6251182723672039</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5996279129939709</v>
+        <v>0.6007044349206769</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6493613151867219</v>
+        <v>0.6522092359210125</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>237624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211615</v>
+        <v>211203</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266695</v>
+        <v>263969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2614884809806183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2328671031698788</v>
+        <v>0.2324136262258653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.293479247367947</v>
+        <v>0.290479147896874</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -2870,19 +2870,19 @@
         <v>81055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65397</v>
+        <v>64731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100187</v>
+        <v>99158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1414983539871454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1141638194994093</v>
+        <v>0.1130014282610295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1748966709626702</v>
+        <v>0.1730999512822726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>301</v>
@@ -2891,19 +2891,19 @@
         <v>318680</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287631</v>
+        <v>286753</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351260</v>
+        <v>352273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2150954192241571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1941386347825558</v>
+        <v>0.1935461591944328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2370857208402036</v>
+        <v>0.2377691022232547</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>110818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91425</v>
+        <v>90485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132510</v>
+        <v>132638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1219477591496475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.100606198933779</v>
+        <v>0.09957227563426573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1458173127840627</v>
+        <v>0.1459583525036126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -2941,19 +2941,19 @@
         <v>34628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23634</v>
+        <v>24337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48106</v>
+        <v>48740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06045030582200617</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04125814779464037</v>
+        <v>0.04248420546305057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0839782993886511</v>
+        <v>0.08508553000962692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>134</v>
@@ -2962,19 +2962,19 @@
         <v>145447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>123956</v>
+        <v>123943</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>171590</v>
+        <v>172618</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09817034327734367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0836653024834151</v>
+        <v>0.08365608351583306</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1158160934583572</v>
+        <v>0.1165098254853325</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>71086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54545</v>
+        <v>55420</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89104</v>
+        <v>89994</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07822510906658414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06002287990121542</v>
+        <v>0.06098623784430816</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09805220603254672</v>
+        <v>0.09903152520024863</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -3012,19 +3012,19 @@
         <v>20203</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12226</v>
+        <v>12209</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30407</v>
+        <v>30654</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03526753708071263</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02134251155095597</v>
+        <v>0.02131390990669999</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05308075112349944</v>
+        <v>0.05351334345888444</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -3033,19 +3033,19 @@
         <v>91289</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73996</v>
+        <v>73487</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>114500</v>
+        <v>113054</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06161596513129539</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04994434951269137</v>
+        <v>0.04960029043207681</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07728276068964976</v>
+        <v>0.07630660637378633</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>246404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229375</v>
+        <v>230440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>261484</v>
+        <v>263423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7791272850774348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7252813682725974</v>
+        <v>0.7286473047715674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8268082411900569</v>
+        <v>0.8329386313646227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -3158,19 +3158,19 @@
         <v>197986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>184818</v>
+        <v>184607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>208307</v>
+        <v>208979</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8464587428475208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.790161368229612</v>
+        <v>0.7892578375573698</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8905850219452711</v>
+        <v>0.8934594642131862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>403</v>
@@ -3179,19 +3179,19 @@
         <v>444390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>421086</v>
+        <v>423127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>463657</v>
+        <v>463794</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8077532788419252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7653934774100658</v>
+        <v>0.7691037214692154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8427729684613977</v>
+        <v>0.8430234192661042</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>45103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32941</v>
+        <v>32759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60107</v>
+        <v>60028</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1426149707807572</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1041574783982536</v>
+        <v>0.1035822742957542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1900562958733667</v>
+        <v>0.1898067690454353</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -3229,19 +3229,19 @@
         <v>24283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15275</v>
+        <v>15037</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35793</v>
+        <v>36041</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1038202049037127</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06530490611959175</v>
+        <v>0.06428798513086845</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1530289893227905</v>
+        <v>0.1540866846548328</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -3250,19 +3250,19 @@
         <v>69386</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53444</v>
+        <v>53616</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>87538</v>
+        <v>87077</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1261213619555443</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09714399275097629</v>
+        <v>0.09745588361625103</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1591142957542758</v>
+        <v>0.1582768688796597</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>18002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10018</v>
+        <v>10331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28370</v>
+        <v>28786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05692068401234581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03167539410679448</v>
+        <v>0.03266657923661147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0897041683014236</v>
+        <v>0.09102010638194231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3300,19 +3300,19 @@
         <v>8465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3859</v>
+        <v>3811</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17197</v>
+        <v>15822</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0361917622381103</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01649976364925569</v>
+        <v>0.01629476106528693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07352140841297877</v>
+        <v>0.06764597282183404</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -3321,19 +3321,19 @@
         <v>26467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17013</v>
+        <v>17120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39182</v>
+        <v>39122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04810777537935459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03092327735073053</v>
+        <v>0.03111785810778623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07121955824434803</v>
+        <v>0.07111008807961153</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>6748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15207</v>
+        <v>15278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02133706012946222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009014484990020675</v>
+        <v>0.009003410900522474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04808576211119293</v>
+        <v>0.04830938280342349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12198</v>
+        <v>12260</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01352929001065619</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05215168141653361</v>
+        <v>0.05241584936665301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -3392,19 +3392,19 @@
         <v>9912</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4301</v>
+        <v>4524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19371</v>
+        <v>21151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01801758382317594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007817037253229577</v>
+        <v>0.008223593835342801</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03521008092757912</v>
+        <v>0.03844504331658892</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>814873</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>776027</v>
+        <v>778101</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>849756</v>
+        <v>853634</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.578739967526791</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5511503620645929</v>
+        <v>0.5526231414297275</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6035145150642076</v>
+        <v>0.606268712423804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>676</v>
@@ -3517,19 +3517,19 @@
         <v>733418</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>705987</v>
+        <v>705113</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>758854</v>
+        <v>758753</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7779497545315652</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.748853155241989</v>
+        <v>0.7479254146937941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8049296812955516</v>
+        <v>0.8048224617366162</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1445</v>
@@ -3538,19 +3538,19 @@
         <v>1548292</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1500994</v>
+        <v>1499893</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1595949</v>
+        <v>1592813</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6586314856685223</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6385113330919147</v>
+        <v>0.6380429602352242</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6789046010519687</v>
+        <v>0.6775702932259418</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>327152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>295463</v>
+        <v>295165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>359959</v>
+        <v>359454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2323504053723374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2098436183454702</v>
+        <v>0.2096322523720498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2556505884662724</v>
+        <v>0.2552919882154968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -3588,19 +3588,19 @@
         <v>129955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108807</v>
+        <v>108043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152248</v>
+        <v>153541</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1378455182647707</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1154135273041928</v>
+        <v>0.1146035419385109</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.161492125512553</v>
+        <v>0.1628638650676211</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>428</v>
@@ -3609,19 +3609,19 @@
         <v>457107</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>418495</v>
+        <v>420389</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497170</v>
+        <v>499732</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1944499637506842</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.178024762051753</v>
+        <v>0.1788301566770718</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2114922386030836</v>
+        <v>0.2125821091089458</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>166704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>142380</v>
+        <v>143455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>193106</v>
+        <v>194094</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1183965657224731</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1011209463520535</v>
+        <v>0.1018848166445915</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.137147647190668</v>
+        <v>0.1378492479520954</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -3659,19 +3659,19 @@
         <v>49412</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36487</v>
+        <v>36766</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64653</v>
+        <v>65111</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05241236842393654</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03870202208963833</v>
+        <v>0.03899863166717576</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06857865794851166</v>
+        <v>0.06906454636462903</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>200</v>
@@ -3680,19 +3680,19 @@
         <v>216116</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>187449</v>
+        <v>189790</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>246454</v>
+        <v>245811</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0919341224118075</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07973942500489194</v>
+        <v>0.08073517117375441</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1048397002199377</v>
+        <v>0.1045663153312908</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>99283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80436</v>
+        <v>81089</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120738</v>
+        <v>120780</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07051306137839843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05712708946523114</v>
+        <v>0.05759129170437832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08575051301327812</v>
+        <v>0.08578065804199642</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -3730,19 +3730,19 @@
         <v>29973</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20129</v>
+        <v>19801</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41470</v>
+        <v>43915</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03179235877972753</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02135121913903794</v>
+        <v>0.02100331706614852</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04398793587668282</v>
+        <v>0.04658157811709002</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>118</v>
@@ -3751,19 +3751,19 @@
         <v>129256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105805</v>
+        <v>108448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>152456</v>
+        <v>154892</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05498442816898609</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04500860723526442</v>
+        <v>0.04613276359570736</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06485355638730929</v>
+        <v>0.06588989591756704</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>46941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36129</v>
+        <v>36035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59011</v>
+        <v>59029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3397859426048974</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2615241823772288</v>
+        <v>0.2608414283034007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4271576712610451</v>
+        <v>0.4272893562732792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -4115,19 +4115,19 @@
         <v>46465</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37717</v>
+        <v>38458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53441</v>
+        <v>54075</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6721564369684846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5456150150718158</v>
+        <v>0.5563253512088484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7730696691619149</v>
+        <v>0.7822455721500626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -4136,19 +4136,19 @@
         <v>93406</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78559</v>
+        <v>79193</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108143</v>
+        <v>107439</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4506343262418217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3790046573329934</v>
+        <v>0.3820659526946641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5217336982772657</v>
+        <v>0.5183381756601652</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>48575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37272</v>
+        <v>38752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60740</v>
+        <v>62153</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3516162096896988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2697972927754073</v>
+        <v>0.2805110445885722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4396717463810109</v>
+        <v>0.4499045854866399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -4186,19 +4186,19 @@
         <v>17686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11487</v>
+        <v>10829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26336</v>
+        <v>25486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.255846748988152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1661755628524489</v>
+        <v>0.1566526560982254</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3809690108085464</v>
+        <v>0.3686763755420515</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -4207,19 +4207,19 @@
         <v>66261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54621</v>
+        <v>53084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81004</v>
+        <v>80499</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3196762809036813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2635193425314694</v>
+        <v>0.2561045465554416</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.390803859909759</v>
+        <v>0.3883639897993217</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>29468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20166</v>
+        <v>20171</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40265</v>
+        <v>40272</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2133081659006139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1459724530681257</v>
+        <v>0.1460078019319848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2914638853830677</v>
+        <v>0.2915119944917262</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -4257,19 +4257,19 @@
         <v>4977</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1908</v>
+        <v>1072</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10981</v>
+        <v>10309</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0719968140433634</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02759854815600745</v>
+        <v>0.01550051555163109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1588547189231622</v>
+        <v>0.1491347119096684</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -4278,19 +4278,19 @@
         <v>34445</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24220</v>
+        <v>24221</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46094</v>
+        <v>46428</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1661796294975313</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1168479309605658</v>
+        <v>0.1168558915690261</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2223781321448518</v>
+        <v>0.223991393385519</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>13164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6502</v>
+        <v>7242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22122</v>
+        <v>21593</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09528968180478994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04706890306382293</v>
+        <v>0.05242430601730699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1601348145980241</v>
+        <v>0.156305480469579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -4341,19 +4341,19 @@
         <v>13164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6874</v>
+        <v>7163</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21976</v>
+        <v>22661</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06350976335696577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03316296842896282</v>
+        <v>0.03455840797594519</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1060215000654467</v>
+        <v>0.1093274587639457</v>
       </c>
     </row>
     <row r="8">
@@ -4445,19 +4445,19 @@
         <v>492286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>461013</v>
+        <v>461616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>521916</v>
+        <v>525822</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5359961505012599</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.501945754956728</v>
+        <v>0.5026022793023504</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5682569443246694</v>
+        <v>0.5725096328632217</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>459</v>
@@ -4466,19 +4466,19 @@
         <v>469601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>448557</v>
+        <v>446629</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>492975</v>
+        <v>490792</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7229677084297281</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6905705536010327</v>
+        <v>0.6876015980445881</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7589539371340763</v>
+        <v>0.755592400246049</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>917</v>
@@ -4487,19 +4487,19 @@
         <v>961888</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>922676</v>
+        <v>925016</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>998882</v>
+        <v>999135</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6134495175249255</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5884422965375556</v>
+        <v>0.5899345999548256</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6370427225480902</v>
+        <v>0.6372044502917827</v>
       </c>
     </row>
     <row r="10">
@@ -4516,19 +4516,19 @@
         <v>251680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>224127</v>
+        <v>222907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>281140</v>
+        <v>278035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2740269214701618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2440272234063777</v>
+        <v>0.2426992454887851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3061019589830128</v>
+        <v>0.3027215676089475</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -4537,19 +4537,19 @@
         <v>111967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92879</v>
+        <v>93709</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131694</v>
+        <v>130368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.172376733052814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1429906670497803</v>
+        <v>0.1442677086404702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2027474275473996</v>
+        <v>0.2007064912208172</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>346</v>
@@ -4558,19 +4558,19 @@
         <v>363647</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>331445</v>
+        <v>333061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>398504</v>
+        <v>400172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2319181139127807</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2113808985971548</v>
+        <v>0.2124117165975242</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2541484187063861</v>
+        <v>0.2552120354915909</v>
       </c>
     </row>
     <row r="11">
@@ -4587,19 +4587,19 @@
         <v>135905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112240</v>
+        <v>112825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>156950</v>
+        <v>160526</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1479720983964059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1222059149764366</v>
+        <v>0.1228423949450286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1708858558511108</v>
+        <v>0.1747789533430312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -4608,19 +4608,19 @@
         <v>50993</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38921</v>
+        <v>38122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65508</v>
+        <v>65488</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07850543978775841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05992059613213075</v>
+        <v>0.05869060294604953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1008514877217131</v>
+        <v>0.1008210888306504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -4629,19 +4629,19 @@
         <v>186898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>162233</v>
+        <v>163610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>214308</v>
+        <v>215945</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1191953867685245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1034653298916519</v>
+        <v>0.1043432124509912</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1366760326031366</v>
+        <v>0.1377200257241804</v>
       </c>
     </row>
     <row r="12">
@@ -4658,19 +4658,19 @@
         <v>38579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28189</v>
+        <v>27242</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53376</v>
+        <v>53256</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04200482963217241</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03069159549652538</v>
+        <v>0.02966125831802329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05811527300891337</v>
+        <v>0.05798499545121776</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -4679,19 +4679,19 @@
         <v>16986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9683</v>
+        <v>9805</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26998</v>
+        <v>28274</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02615011872969945</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01490790147647924</v>
+        <v>0.01509445718934803</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04156368172520747</v>
+        <v>0.04352907853700111</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -4700,19 +4700,19 @@
         <v>55565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42488</v>
+        <v>42614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72376</v>
+        <v>72813</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0354369817937693</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02709711163351116</v>
+        <v>0.02717740167555623</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04615841007396808</v>
+        <v>0.04643666908428096</v>
       </c>
     </row>
     <row r="13">
@@ -4804,19 +4804,19 @@
         <v>257120</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>238906</v>
+        <v>241009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>273336</v>
+        <v>274573</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7421946606841714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.68961753250888</v>
+        <v>0.6956903261344303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7890039635799199</v>
+        <v>0.7925728210344818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>251</v>
@@ -4825,19 +4825,19 @@
         <v>261263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>247224</v>
+        <v>248684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>272261</v>
+        <v>274531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8497835461363268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8041191693065607</v>
+        <v>0.8088680539281796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8855539593047049</v>
+        <v>0.8929376871451301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>487</v>
@@ -4846,19 +4846,19 @@
         <v>518384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>492518</v>
+        <v>496183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>539932</v>
+        <v>538245</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7927818391991042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7532232079432399</v>
+        <v>0.7588294567010853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8257350560457393</v>
+        <v>0.8231562084120844</v>
       </c>
     </row>
     <row r="15">
@@ -4875,19 +4875,19 @@
         <v>61911</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>48249</v>
+        <v>47908</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>79685</v>
+        <v>77398</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1787099083963439</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1392748122600678</v>
+        <v>0.1382908452848285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2300157701127762</v>
+        <v>0.2234132960029607</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -4896,19 +4896,19 @@
         <v>32336</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23123</v>
+        <v>22550</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44290</v>
+        <v>43342</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.105174564746251</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07520867470364213</v>
+        <v>0.07334648160337316</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1440584595931328</v>
+        <v>0.1409738226286557</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>88</v>
@@ -4917,19 +4917,19 @@
         <v>94247</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>76747</v>
+        <v>76127</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>115976</v>
+        <v>113086</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1441343521876272</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1173709438121014</v>
+        <v>0.1164240439393027</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1773658969622665</v>
+        <v>0.1729457494191909</v>
       </c>
     </row>
     <row r="16">
@@ -4946,19 +4946,19 @@
         <v>22061</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14502</v>
+        <v>13751</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33885</v>
+        <v>32162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06368176262087513</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04186148696524301</v>
+        <v>0.0396944420194415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09781033847986999</v>
+        <v>0.09283905715828351</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4967,19 +4967,19 @@
         <v>6787</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2906</v>
+        <v>2879</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13002</v>
+        <v>13562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02207385948515657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009450841805486422</v>
+        <v>0.009364704753288735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04229026770805736</v>
+        <v>0.04411208296630693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -4988,19 +4988,19 @@
         <v>28848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19906</v>
+        <v>20104</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40829</v>
+        <v>41102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04411815793519747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03044361509142368</v>
+        <v>0.03074582063224239</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06244159550438528</v>
+        <v>0.06285861787599815</v>
       </c>
     </row>
     <row r="17">
@@ -5017,19 +5017,19 @@
         <v>5340</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12633</v>
+        <v>12225</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01541366829860962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005672869889558064</v>
+        <v>0.005586315808648078</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03646744331363803</v>
+        <v>0.03528847373241051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -5038,19 +5038,19 @@
         <v>7061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2810</v>
+        <v>3057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14334</v>
+        <v>13930</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02296802963226557</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009140091641058711</v>
+        <v>0.009942425213689805</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0466224121922987</v>
+        <v>0.04530837258864596</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -5059,19 +5059,19 @@
         <v>12401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6054</v>
+        <v>6899</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20165</v>
+        <v>22152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01896565067807114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009257846581888473</v>
+        <v>0.01055073438629862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03083845676044963</v>
+        <v>0.03387799350946348</v>
       </c>
     </row>
     <row r="18">
@@ -5163,19 +5163,19 @@
         <v>796347</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>759760</v>
+        <v>758843</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>838447</v>
+        <v>837503</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5675904773119678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5415130369213799</v>
+        <v>0.5408594230454502</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5975967666751516</v>
+        <v>0.5969238831453462</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>756</v>
@@ -5184,19 +5184,19 @@
         <v>777330</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>751131</v>
+        <v>749564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>805175</v>
+        <v>803261</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.757541279902733</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7320099199621397</v>
+        <v>0.7304826600169252</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7846777989671864</v>
+        <v>0.7828128532396011</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1494</v>
@@ -5205,19 +5205,19 @@
         <v>1573677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1526916</v>
+        <v>1526243</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1622031</v>
+        <v>1618860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6478294312435409</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6285795272358878</v>
+        <v>0.6283023928813086</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6677350554503962</v>
+        <v>0.6664294005014673</v>
       </c>
     </row>
     <row r="20">
@@ -5234,19 +5234,19 @@
         <v>362166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>328980</v>
+        <v>331383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>397116</v>
+        <v>398114</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2581312624199206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2344780576909049</v>
+        <v>0.2361905807273378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2830417839211552</v>
+        <v>0.2837529318074055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -5255,19 +5255,19 @@
         <v>161989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>140262</v>
+        <v>140196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>184290</v>
+        <v>187116</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1578648205932623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1366910245034465</v>
+        <v>0.1366271623803229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1795986791307163</v>
+        <v>0.1823527427246052</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>498</v>
@@ -5276,19 +5276,19 @@
         <v>524155</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>485102</v>
+        <v>482350</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>564605</v>
+        <v>567574</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.215776745898372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1996999788702999</v>
+        <v>0.1985671227613016</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2324284586704618</v>
+        <v>0.2336510803627647</v>
       </c>
     </row>
     <row r="21">
@@ -5305,19 +5305,19 @@
         <v>187435</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>164517</v>
+        <v>163294</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>215044</v>
+        <v>212313</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1335926155543083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1172580700109431</v>
+        <v>0.1163863689106603</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1532710566208051</v>
+        <v>0.151324598643795</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>62</v>
@@ -5326,19 +5326,19 @@
         <v>62756</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48068</v>
+        <v>48489</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>79001</v>
+        <v>79367</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06115889422932791</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04684421291603118</v>
+        <v>0.04725457297302951</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07699021823172378</v>
+        <v>0.07734699458744279</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>239</v>
@@ -5347,19 +5347,19 @@
         <v>250191</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>219305</v>
+        <v>220241</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>285043</v>
+        <v>282473</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1029951874349387</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09028037876515663</v>
+        <v>0.09066564146462734</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1173427032251678</v>
+        <v>0.1162846384424419</v>
       </c>
     </row>
     <row r="22">
@@ -5376,19 +5376,19 @@
         <v>57083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42988</v>
+        <v>42804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72442</v>
+        <v>71789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04068564471380332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03063924216096113</v>
+        <v>0.03050821907534608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05163278868185575</v>
+        <v>0.05116721750262257</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -5397,19 +5397,19 @@
         <v>24047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14672</v>
+        <v>15902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34628</v>
+        <v>36195</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02343500527467671</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01429896923746524</v>
+        <v>0.01549684530082551</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03374659129860632</v>
+        <v>0.03527352433887809</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -5418,19 +5418,19 @@
         <v>81130</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64335</v>
+        <v>64360</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98891</v>
+        <v>100997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03339863542314844</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02648445716332276</v>
+        <v>0.02649490554521361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04070991923692865</v>
+        <v>0.04157718899296661</v>
       </c>
     </row>
     <row r="23">
@@ -5761,19 +5761,19 @@
         <v>38166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27787</v>
+        <v>27008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48132</v>
+        <v>48780</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4407965224971426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3209283954898119</v>
+        <v>0.3119305630795942</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5559008642422749</v>
+        <v>0.5633813292719021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -5782,19 +5782,19 @@
         <v>25623</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19637</v>
+        <v>19751</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30858</v>
+        <v>30890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.580910419702494</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4451827104292496</v>
+        <v>0.4477846997219089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6995796574080357</v>
+        <v>0.7003189926296517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -5803,19 +5803,19 @@
         <v>63789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51489</v>
+        <v>51754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75795</v>
+        <v>76683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4880853505075178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3939694416317926</v>
+        <v>0.3959994937931967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5799501653025937</v>
+        <v>0.5867384327547776</v>
       </c>
     </row>
     <row r="5">
@@ -5832,19 +5832,19 @@
         <v>26538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17747</v>
+        <v>17714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37345</v>
+        <v>37547</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3065008584585217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2049662340958881</v>
+        <v>0.2045901925512599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4313187696939683</v>
+        <v>0.4336439376639077</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -5853,19 +5853,19 @@
         <v>15932</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10713</v>
+        <v>10731</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21493</v>
+        <v>21535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3611927672247103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2428697952577445</v>
+        <v>0.2432761736729039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4872678258617157</v>
+        <v>0.4882151672217759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -5874,19 +5874,19 @@
         <v>42470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32184</v>
+        <v>32432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54491</v>
+        <v>54214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3249595290029068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2462535449643196</v>
+        <v>0.2481549302068361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4169373303081658</v>
+        <v>0.4148217403213347</v>
       </c>
     </row>
     <row r="6">
@@ -5903,19 +5903,19 @@
         <v>16613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7891</v>
+        <v>8333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31500</v>
+        <v>29166</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1918750434071809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09114016128830524</v>
+        <v>0.09623663450805746</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.36380306093481</v>
+        <v>0.3368571833116283</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -5924,19 +5924,19 @@
         <v>1877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5183</v>
+        <v>5487</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04255038589707365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01284565335479521</v>
+        <v>0.01275823747836322</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1175145188324467</v>
+        <v>0.1244013080129089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -5945,19 +5945,19 @@
         <v>18490</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9022</v>
+        <v>9687</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33233</v>
+        <v>32554</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1414775583072235</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06903320352403207</v>
+        <v>0.07411942834416199</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2542850394017878</v>
+        <v>0.2490892727920226</v>
       </c>
     </row>
     <row r="7">
@@ -5974,19 +5974,19 @@
         <v>5267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2113</v>
+        <v>1782</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11842</v>
+        <v>11086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06082757563715487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02439961891060372</v>
+        <v>0.02058058578551339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1367680363596605</v>
+        <v>0.128032497313135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3833</v>
+        <v>3261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01534642717572192</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08690644821694735</v>
+        <v>0.0739266185320558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6016,19 +6016,19 @@
         <v>5944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2207</v>
+        <v>2026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12400</v>
+        <v>12798</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04547756218235174</v>
+        <v>0.04547756218235173</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01688649833868872</v>
+        <v>0.01550484922102067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09488131298562227</v>
+        <v>0.09792093349753779</v>
       </c>
     </row>
     <row r="8">
@@ -6120,19 +6120,19 @@
         <v>311580</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>280782</v>
+        <v>282894</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>339182</v>
+        <v>336815</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5056458432087203</v>
+        <v>0.5056458432087204</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4556647089904084</v>
+        <v>0.4590922721901114</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5504393420258189</v>
+        <v>0.546598180084786</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>389</v>
@@ -6141,19 +6141,19 @@
         <v>295623</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>278710</v>
+        <v>273583</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>314525</v>
+        <v>312380</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6612149269083899</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6233860591515267</v>
+        <v>0.6119192479956761</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7034931308667917</v>
+        <v>0.6986963924860442</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>650</v>
@@ -6162,19 +6162,19 @@
         <v>607203</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>573821</v>
+        <v>572808</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>641731</v>
+        <v>639873</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5710590395027758</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5396638635017988</v>
+        <v>0.5387114104025476</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6035319622481059</v>
+        <v>0.6017846350964119</v>
       </c>
     </row>
     <row r="10">
@@ -6191,19 +6191,19 @@
         <v>208881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183825</v>
+        <v>184909</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235827</v>
+        <v>236481</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3389808099186221</v>
+        <v>0.3389808099186222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2983186120253332</v>
+        <v>0.3000773230547529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3827104896407848</v>
+        <v>0.3837704698480479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -6212,19 +6212,19 @@
         <v>108393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91725</v>
+        <v>93128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124746</v>
+        <v>124670</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2424403382161654</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2051598367851397</v>
+        <v>0.208297108575799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2790182775524084</v>
+        <v>0.2788480370136451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>320</v>
@@ -6233,19 +6233,19 @@
         <v>317274</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287702</v>
+        <v>288447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349133</v>
+        <v>349259</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2983877777067411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2705761815465664</v>
+        <v>0.2712772078329849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3283509429148791</v>
+        <v>0.3284696153885677</v>
       </c>
     </row>
     <row r="11">
@@ -6262,19 +6262,19 @@
         <v>74360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57618</v>
+        <v>56762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95986</v>
+        <v>95137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1206737151843133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09350516244789379</v>
+        <v>0.09211604172163945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1557700906889109</v>
+        <v>0.154393101043861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -6283,19 +6283,19 @@
         <v>24953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17876</v>
+        <v>17695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34997</v>
+        <v>35384</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05581241842920704</v>
+        <v>0.05581241842920703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03998271456468924</v>
+        <v>0.03957924782249913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07827767957024534</v>
+        <v>0.07914279823768289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -6304,19 +6304,19 @@
         <v>99313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80809</v>
+        <v>80827</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123999</v>
+        <v>122802</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09340104226223352</v>
+        <v>0.0934010422622335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07599870890902952</v>
+        <v>0.07601551497778102</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1166179383502471</v>
+        <v>0.1154920343459026</v>
       </c>
     </row>
     <row r="12">
@@ -6333,19 +6333,19 @@
         <v>21382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11910</v>
+        <v>13410</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33573</v>
+        <v>33406</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0346996316883442</v>
+        <v>0.03469963168834421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01932762646165534</v>
+        <v>0.02176173263903732</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05448357279241532</v>
+        <v>0.0542124434269714</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -6354,19 +6354,19 @@
         <v>18122</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12221</v>
+        <v>11863</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27117</v>
+        <v>26799</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04053231644623762</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02733490809046149</v>
+        <v>0.02653316959178115</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06065315626906231</v>
+        <v>0.05994039899530392</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -6375,19 +6375,19 @@
         <v>39504</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26971</v>
+        <v>28210</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51913</v>
+        <v>53351</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03715214052824963</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02536535205968386</v>
+        <v>0.02653123980127163</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04882255024428932</v>
+        <v>0.05017479893961371</v>
       </c>
     </row>
     <row r="13">
@@ -6479,19 +6479,19 @@
         <v>222261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207849</v>
+        <v>206664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234500</v>
+        <v>233789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8443465510231007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7895970076029024</v>
+        <v>0.7850971188113346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8908425353739304</v>
+        <v>0.8881396793459305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>260</v>
@@ -6500,19 +6500,19 @@
         <v>188568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177253</v>
+        <v>176840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>197529</v>
+        <v>196958</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8634158253100066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8116057959716563</v>
+        <v>0.8097135605464644</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.904446070012252</v>
+        <v>0.901830176384379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>448</v>
@@ -6521,19 +6521,19 @@
         <v>410829</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>392681</v>
+        <v>390666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>426218</v>
+        <v>425773</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8529935849454162</v>
+        <v>0.8529935849454161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8153139458656847</v>
+        <v>0.8111295189504666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8849457125176817</v>
+        <v>0.8840218531876672</v>
       </c>
     </row>
     <row r="15">
@@ -6550,19 +6550,19 @@
         <v>29954</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20156</v>
+        <v>19838</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40988</v>
+        <v>41921</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1137933726303954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07657019493870861</v>
+        <v>0.07536208733191171</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1557094737476074</v>
+        <v>0.1592550451734984</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -6571,19 +6571,19 @@
         <v>17038</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11358</v>
+        <v>11133</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25983</v>
+        <v>26065</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07801170072985149</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05200412179836833</v>
+        <v>0.05097719608603758</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1189728072889729</v>
+        <v>0.1193457697134909</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>53</v>
@@ -6592,19 +6592,19 @@
         <v>46992</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35299</v>
+        <v>35749</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>61969</v>
+        <v>60998</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09756803934995596</v>
+        <v>0.09756803934995593</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0732907444135632</v>
+        <v>0.07422382417700796</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1286646234009886</v>
+        <v>0.1266492482101427</v>
       </c>
     </row>
     <row r="16">
@@ -6621,19 +6621,19 @@
         <v>6058</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14032</v>
+        <v>13344</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0230129586135073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008496158683733854</v>
+        <v>0.008503542624498714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05330582020904015</v>
+        <v>0.05069330495129667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5220</v>
+        <v>4855</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006691219219121309</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02390029166178101</v>
+        <v>0.02222953938806381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6663,19 +6663,19 @@
         <v>7519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3256</v>
+        <v>3430</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15998</v>
+        <v>16068</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01561180468960792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006760211563097828</v>
+        <v>0.007122181012145199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03321686175774863</v>
+        <v>0.03336251188442378</v>
       </c>
     </row>
     <row r="17">
@@ -6692,19 +6692,19 @@
         <v>4961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1158</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18775</v>
+        <v>20611</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0188471177329964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004397575807185698</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07132574583512126</v>
+        <v>0.07829978535841069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -6713,19 +6713,19 @@
         <v>11331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5898</v>
+        <v>6362</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20881</v>
+        <v>21635</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05188125474102057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02700738393152384</v>
+        <v>0.02913083094510968</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09561150844177439</v>
+        <v>0.09906000452583687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -6734,19 +6734,19 @@
         <v>16292</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8779</v>
+        <v>9436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31950</v>
+        <v>31308</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03382657101501993</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01822666727001056</v>
+        <v>0.0195925355336757</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06633627245714639</v>
+        <v>0.06500301655799211</v>
       </c>
     </row>
     <row r="18">
@@ -6838,19 +6838,19 @@
         <v>572007</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>535966</v>
+        <v>533335</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>605642</v>
+        <v>604551</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5921271065098982</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5548183453361675</v>
+        <v>0.5520948813890973</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6269450682819924</v>
+        <v>0.6258154852120519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>684</v>
@@ -6859,19 +6859,19 @@
         <v>509814</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>486870</v>
+        <v>485378</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>530145</v>
+        <v>528459</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7184559509023551</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6861219560234145</v>
+        <v>0.6840199158596914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7471072290992724</v>
+        <v>0.7447312738720838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1166</v>
@@ -6880,19 +6880,19 @@
         <v>1081821</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1037731</v>
+        <v>1035063</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1123885</v>
+        <v>1119442</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6456253319407792</v>
+        <v>0.6456253319407793</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6193122394182795</v>
+        <v>0.6177202146906547</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6707284758908566</v>
+        <v>0.6680773885384537</v>
       </c>
     </row>
     <row r="20">
@@ -6909,19 +6909,19 @@
         <v>265373</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235152</v>
+        <v>237282</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>298736</v>
+        <v>300072</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2747075948671421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2434232810589143</v>
+        <v>0.2456281601808074</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3092436029489102</v>
+        <v>0.3106271312752134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -6930,19 +6930,19 @@
         <v>141362</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123114</v>
+        <v>125004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162317</v>
+        <v>162971</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1992147162150897</v>
+        <v>0.1992147162150896</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1734979211130174</v>
+        <v>0.1761617343980986</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2287456311484407</v>
+        <v>0.2296669658797596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>419</v>
@@ -6951,19 +6951,19 @@
         <v>406735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>370629</v>
+        <v>371508</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446665</v>
+        <v>442502</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2427375799431806</v>
+        <v>0.2427375799431807</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2211895536540312</v>
+        <v>0.2217141054004489</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2665673620105114</v>
+        <v>0.2640829403996272</v>
       </c>
     </row>
     <row r="21">
@@ -6980,19 +6980,19 @@
         <v>97031</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>76777</v>
+        <v>77172</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>122202</v>
+        <v>122779</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1004435411793251</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07947769065344944</v>
+        <v>0.07988665906526578</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1265007923911182</v>
+        <v>0.1270979893113084</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -7001,19 +7001,19 @@
         <v>28291</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20348</v>
+        <v>20525</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38308</v>
+        <v>37738</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03986965127137051</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02867566197297168</v>
+        <v>0.02892457874384318</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05398572596372194</v>
+        <v>0.05318250309201283</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>115</v>
@@ -7022,19 +7022,19 @@
         <v>125322</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>102734</v>
+        <v>102900</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>155308</v>
+        <v>155894</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07479147705172336</v>
+        <v>0.07479147705172337</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06131132400043249</v>
+        <v>0.06140991574601431</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09268725426257021</v>
+        <v>0.09303670131648387</v>
       </c>
     </row>
     <row r="22">
@@ -7051,19 +7051,19 @@
         <v>31610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20759</v>
+        <v>21613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49091</v>
+        <v>51538</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03272175744363461</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02148945280886095</v>
+        <v>0.02237286820212347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05081760926257863</v>
+        <v>0.05335091619388226</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -7072,19 +7072,19 @@
         <v>30129</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20748</v>
+        <v>21366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40839</v>
+        <v>41844</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04245968161118482</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02923956624787384</v>
+        <v>0.03010941952729927</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05755232643724535</v>
+        <v>0.05896861237515062</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -7093,19 +7093,19 @@
         <v>61739</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47949</v>
+        <v>46563</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81794</v>
+        <v>79903</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03684561106431677</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02861574093091029</v>
+        <v>0.02778864660160941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04881449114644129</v>
+        <v>0.04768590672227271</v>
       </c>
     </row>
     <row r="23">
